--- a/Slides/data/Bitterlich.xlsx
+++ b/Slides/data/Bitterlich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FL03039-Inventario-Florestal\Slides\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38E51A-0339-4F82-A390-1B7ADF1468B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF16B4E-E296-436B-A6F8-49E4173DB9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4559,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1A7DD8-9FE6-46A5-9E12-0C16529A2B0C}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Slides/data/Bitterlich.xlsx
+++ b/Slides/data/Bitterlich.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FL03039-Inventario-Florestal\Slides\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37cd5d8700b5386d/GitHub/FL03039-Inventario-Florestal/Slides/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF16B4E-E296-436B-A6F8-49E4173DB9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7EF16B4E-E296-436B-A6F8-49E4173DB9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419632B2-8F6F-450B-9FC1-6ED3274B6FE7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4560,7 +4560,7 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
